--- a/biology/Médecine/Remplissage_vasculaire/Remplissage_vasculaire.xlsx
+++ b/biology/Médecine/Remplissage_vasculaire/Remplissage_vasculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le remplissage vasculaire ou expansion volémique est une technique médicale consistant à perfuser un soluté dans la circulation sanguine via une voie veineuse afin d'augmenter la volémie. Il existe deux classes principales de solutés, les cristalloïdes et les colloïdes. Cette thérapeutique est en principe administrée en urgence en cas d'hypovolémie au cours d'un choc, situation pouvant mettre en jeu le pronostic vital.
 </t>
@@ -511,7 +523,9 @@
           <t>Rappel de physiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La circulation sanguine peut être considérée comme un circuit fermé avec une pompe (le cœur) et des tuyaux constituant les artères et les veines.
 Une diminution de la pression de remplissage du cœur entraîne :
@@ -547,7 +561,9 @@
           <t>Solutés de remplissage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un bon soluté de remplissage doit rester dans les vaisseaux, sans diffuser dans les tissus.
 Le sérum glucosé n'apporte que de l'eau et un peu de sucre. Cette eau va diffuser rapidement dans les cellules. Il est donc totalement inadapté à un remplissage vasculaire efficace.
@@ -582,7 +598,9 @@
           <t>Autres méthodes de remplissage vasculaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le simple fait de mettre le patient en position allongée en surélevant les jambes permet d'avoir un meilleur remplissage vasculaire, le sang des membres inférieurs étant mis à contribution.
 L'emploi d'une contention élastique des membres permet de même de rediriger le sang des membres vers les organes internes.
@@ -615,7 +633,9 @@
           <t>Indication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le remplissage vasculaire est nécessaire dans tous les cas d'hypotension importante à condition de n'avoir pas de tableau d'insuffisance cardiaque. Dans ce dernier cas, le remplissage aggrave la situation.
 Dans le cadre des urgences préhospitalières (aide médicale urgente), le maintien d'une pression artérielle minimale permet de limiter les problèmes liés au transport : si la pression artérielle est insuffisante, les accélérations (au sens large : accélération, freinage, force centrifuge, voire montée et descente dans le cas d'un transport héliporté) peuvent « attirer » le sang d'un côté ou de l'autre et donc provoquer un déficit de certains organes, voire un désamorçage de la pompe cardiaque.
@@ -649,7 +669,9 @@
           <t>Précautions au remplissage vasculaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cependant, le remplissage vasculaire a aussi des inconvénients :
 si l'on attend trop longtemps que la pression monte, on augmente le délai avant l'admission dans la structure de soins et donc le délai avant les soins salvateurs dans le cas d'un blessé grave (notion d'heure d'or). Cet argument n'est que théorique, le remplissage pouvant se faire pendant le transport.
@@ -683,7 +705,9 @@
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Une perfusion est posée sur une voie veineuse idéalement importante (grosse veine du bras, veine du pli du coude ou si besoin, voie centrale). La vitesse de perfusion est réglée par la hauteur de celle-ci par rapport au plan du patient, mais surtout par une mollette clampant (rétrécissant) plus ou moins la tubulure aboutissant à la veine. Dans certains cas on peut accélérer la perfusion :
 en augmentant la pression dans la poche de perfusion (compression de cette dernière par un brassard gonflable)
@@ -718,7 +742,9 @@
           <t>Contrôle de l'efficacité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Une surveillance régulière (soit manuelle, soit par un système de monitorage électronique) est indispensable :
 fréquence cardiaque
@@ -757,12 +783,51 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristalloïdes
-Sérum physiologique
+          <t>Cristalloïdes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sérum physiologique
 Ringer Lactate
-Sérum glucosé (5 %, 10 %, 30 %, 50 %)
-Macromolécules (Colloïdes)
-Hydroxyéthylamidons
+Sérum glucosé (5 %, 10 %, 30 %, 50 %)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Remplissage_vasculaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Remplissage_vasculaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des solutés de remplissage vasculaire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Macromolécules (Colloïdes)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydroxyéthylamidons
 Dextrans
 Gélatines
 Sérum Albumine humaine (4 %, 20 %)
